--- a/public/Student.xlsx
+++ b/public/Student.xlsx
@@ -105,7 +105,7 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="36.08988764044944"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.68988764044944"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.68988764044944"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -138,7 +138,7 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Yukihiro Matsumoto</t>
         </is>
       </c>
     </row>
@@ -155,7 +155,7 @@
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>puts</t>
         </is>
       </c>
     </row>
@@ -172,7 +172,7 @@
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>David Heinemeier Hansson</t>
         </is>
       </c>
     </row>

--- a/public/Student.xlsx
+++ b/public/Student.xlsx
@@ -97,14 +97,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="36.08988764044944"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.68988764044944"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.58988764044944"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.28988764044944"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="20.68988764044944"/>
   </cols>
   <sheetData>
@@ -128,51 +128,34 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Who invented Ruby </t>
+          <t>What is the acronym of PHP</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>Yukihiro Matsumoto</t>
+          <t>Hypertext Preprocessor</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Yukihiro Matsumoto</t>
+          <t>Preprocessor Hypertext Page</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>How do you write to STDOUT in Ruby?</t>
+          <t>Which is the current stable version of php</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>puts</t>
+          <t>Php-5.5.9</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>puts</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>Who invented Rails</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>David Heinemeier Hansson</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>David Heinemeier Hansson</t>
+          <t>Php-5.4.5</t>
         </is>
       </c>
     </row>

--- a/public/Student.xlsx
+++ b/public/Student.xlsx
@@ -97,14 +97,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="30.58988764044944"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.28988764044944"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="36.08988764044944"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.68988764044944"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="20.68988764044944"/>
   </cols>
   <sheetData>
@@ -128,34 +128,51 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>What is the acronym of PHP</t>
+          <t>Who invented Ruby ?</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>Hypertext Preprocessor</t>
+          <t>Yukihiro Matsumoto</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Preprocessor Hypertext Page</t>
+          <t>David Hanson </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>Which is the current stable version of php</t>
+          <t>Who invented Rails ?</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Php-5.5.9</t>
+          <t>David Heinemeier Hansson</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>Php-5.4.5</t>
+          <t>David Heinemeier Hansson</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>How do you write to STDOUT in Ruby?</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>puts</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>puts</t>
         </is>
       </c>
     </row>

--- a/public/Student.xlsx
+++ b/public/Student.xlsx
@@ -97,15 +97,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="36.08988764044944"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.68988764044944"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.68988764044944"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.68988764044944"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -128,51 +128,17 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Who invented Ruby ?</t>
+          <t>How do you write to STDOUT in Ruby?</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>Yukihiro Matsumoto</t>
+          <t>puts</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>David Hanson </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>Who invented Rails ?</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>David Heinemeier Hansson</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>David Heinemeier Hansson</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>How do you write to STDOUT in Ruby?</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>puts</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>puts</t>
+          <t>Php-5.4.5</t>
         </is>
       </c>
     </row>

--- a/public/Student.xlsx
+++ b/public/Student.xlsx
@@ -97,29 +97,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="36.08988764044944"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.489887640449439"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.68988764044944"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.28988764044944"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.68988764044944"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
+          <t>Topic Name </t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>Answer</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>Option</t>
         </is>
@@ -128,17 +134,220 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>How do you write to STDOUT in Ruby?</t>
+          <t>php</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>puts</t>
+          <t>What is acronym of PHP ?</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Php-5.4.5</t>
+          <t>Hypertext Preprocessor</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>Hypertext Preprocessor</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>php</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>What is acronym of PHP ?</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Hypertext Preprocessor</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>Preprocessor Hypertext Page</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>php</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>What is acronym of PHP ?</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>Hypertext Preprocessor</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>Preprocessor Hypertext Page</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>php</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>What is acronym of PHP ?</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>Hypertext Preprocessor</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>Preprocessor Hypertext Page</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>php</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>What is acronym of PHP ?</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>Hypertext Preprocessor</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>Preprocessor Hypertext Page</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>php</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>What is acronym of PHP ?</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>Hypertext Preprocessor</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>Hypertext Preprocessor</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>php</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>What is acronym of PHP ?</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>Hypertext Preprocessor</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>Preprocessor Hypertext Page</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>php</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>What is acronym of PHP ?</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>Hypertext Preprocessor</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>Preprocessor Hypertext Page</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>php</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>What is acronym of PHP ?</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>Hypertext Preprocessor</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Hypertext Preprocessor</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>php</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>What is acronym of PHP ?</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>Hypertext Preprocessor</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Preprocessor Hypertext Page</t>
         </is>
       </c>
     </row>

--- a/public/Student.xlsx
+++ b/public/Student.xlsx
@@ -97,7 +97,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -106,7 +106,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="16.28988764044944"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="22.88988764044944"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.589887640449438"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -139,17 +139,39 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>which is the capital city of India ?</t>
+          <t>which is the capital city of karnataka ?</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>New Delhi</t>
+          <t>Bangalore</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>mumbai</t>
+          <t>Bangalore</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>general knowledge</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>which is the capital city of India ?</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>New Delhi</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>goa</t>
         </is>
       </c>
     </row>
